--- a/Pandas/score.xlsx
+++ b/Pandas/score.xlsx
@@ -46,28 +46,28 @@
     <t>지원번호</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
+    <t>1번</t>
+  </si>
+  <si>
+    <t>2번</t>
+  </si>
+  <si>
+    <t>3번</t>
+  </si>
+  <si>
+    <t>4번</t>
+  </si>
+  <si>
+    <t>5번</t>
+  </si>
+  <si>
+    <t>6번</t>
+  </si>
+  <si>
+    <t>7번</t>
+  </si>
+  <si>
+    <t>8번</t>
   </si>
   <si>
     <t>채치수</t>
